--- a/database_fornitori.xlsx
+++ b/database_fornitori.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -454,18 +454,18 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Fornitore</t>
+          <t>Proveedor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Importo</t>
+          <t>Importe</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,16 +474,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ANIOFE</t>
+          <t>IBIFOOD</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,65 +492,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ANIOFE</t>
+          <t>COCA COLA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45692</v>
+        <v>45709</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BEVERAGE</t>
+          <t>FOOD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>METRO</t>
+          <t>ANIOFE</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45699</v>
+      <c r="A5" s="3" t="n">
+        <v>45709</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BEVERAGE</t>
+          <t>FOOD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>METRO</t>
+          <t>ANIOFE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ALTRO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PANE</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,12 +557,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Contanti</t>
+          <t>Efectivo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -590,50 +572,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Totale</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45699</v>
+        <v>45709</v>
       </c>
       <c r="B2" t="n">
-        <v>852</v>
+        <v>520</v>
       </c>
       <c r="C2" t="n">
-        <v>452</v>
+        <v>580</v>
       </c>
       <c r="D2" t="n">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45700</v>
-      </c>
-      <c r="B3" t="n">
-        <v>852</v>
-      </c>
-      <c r="C3" t="n">
-        <v>452</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45702</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8452</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4522</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12974</v>
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
